--- a/new_trophic_model.xlsx
+++ b/new_trophic_model.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewdouglasgreen/Library/CloudStorage/Dropbox/Manuscipts/Protist_Network_Big_19/Protist_Network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B91487A0-6759-154D-A349-DB0924D90DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{089A64D8-2BE7-6345-B034-98D4B7D5932B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360"/>
+    <workbookView xWindow="3520" yWindow="500" windowWidth="28040" windowHeight="16360"/>
   </bookViews>
   <sheets>
     <sheet name="new_trophic_model" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="22">
   <si>
     <t>time</t>
   </si>
@@ -78,12 +80,24 @@
   <si>
     <t>Phase 3</t>
   </si>
+  <si>
+    <t>density ~ ln.pred + bac.density_log  + (1|rep) + adjacency(1|bottle.number)</t>
+  </si>
+  <si>
+    <t>density ~ ln.pred + (1|rep) + adjacency(1|bottle.number)</t>
+  </si>
+  <si>
+    <t>density ~ ln.pred  + (1|rep) + adjacency(1|bottle.number)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,6 +231,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -400,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -515,6 +535,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -560,12 +595,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -924,865 +962,865 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M4"/>
+      <selection sqref="A1:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="3" max="3" width="62.83203125" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>36605.214031976102</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>8.1001175789878796E-2</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
         <v>0.615739739447556</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
         <v>36606.457974252102</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>8.0641059461664596E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1.2439422760144201</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.53688511924228499</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>0.33058150343551501</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
         <v>36611.024475300197</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>8.0133884163682306E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>5.8104433240296203</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>5.4736656219172598E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>3.3703534438623797E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>36612.070695444003</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>7.9795402254834696E-2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>6.8566634678354603</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>3.2441015901016598E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>1.9975222678305999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>43576.0014323457</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>1.56558115633697E-2</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>0.50228217608862202</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
         <v>43577.414138771797</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>1.5725627809125099E-2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>1.41270642606105</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.49344039229319803</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>0.24784631401105101</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
         <v>43578.195133245303</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>1.5632783714933401E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>2.1937008995882898</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0.33392113060798501</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>0.16772263212375199</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>43579.622690109303</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>1.57008362243444E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>3.6212577636106298</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.16355125004889901</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>8.2148877776575396E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
         <v>14664.244267398601</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>1.8953673274131E-2</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>0.64344374410488703</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>14665.4928431754</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>1.9177036319783E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>1.2485757767444701</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.535642730154683</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>0.344655963793293</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>14673.1946484337</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>1.5692862736042801E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>8.9503810350197508</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>1.1388052294459199E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>7.3275710064090701E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
         <v>14674.1377196948</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>1.60080675596368E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>9.8934522961280909</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>7.1066369629127603E-3</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>4.5727210954107696E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
         <v>13229.942490331599</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>6.3054845173327906E-2</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
         <v>0.66530345164723503</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>13231.973671187599</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>6.3045992176384097E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>2.0311808559363298</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>0.36218852045743999</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <v>0.24096527280734001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>13234.4852639767</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>6.1195359976013899E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>4.5427736450765197</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>0.103169003726331</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <v>6.8638694282134205E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
         <v>13236.4978323708</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>6.1191784433839998E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>6.5553420391825101</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>3.7715994410016003E-2</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <v>2.5092581263291499E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
         <v>9441.1063166413405</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0.37478988927409201</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
         <v>0.37950643443245002</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
         <v>9441.65702082196</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>0.37515811997974202</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>0.550704180617686</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>0.75930473231715001</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
         <v>0.28816103160936701</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
         <v>9442.5055675225994</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>0.374942551292544</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>1.39925088126074</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>0.496771339308263</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
         <v>0.18852791970911201</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>9443.0471486793103</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>0.375313008769602</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>1.9408320379661701</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>0.37892536516312397</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="3">
         <v>0.14380461424907101</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
         <v>11040.7313927672</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>0.11318352236396199</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
         <v>0.51239668965121998</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
         <v>11042.377221132399</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>0.113311190100906</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>1.64582836529371</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>0.43915002458017299</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="3">
         <v>0.22501901885513301</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
         <v>11042.8018178497</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>0.113158134145406</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>2.0704250825783701</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>0.35515088867489197</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <v>0.18197813968370399</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>11044.430441042599</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>0.11329200717030501</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>3.6990482754772498</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>0.15731200735276199</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="3">
         <v>8.0606151809943793E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>3</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>8236.9230419563701</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>0.30534748830159197</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
         <v>0.50677901470090703</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
         <v>8237.7151525470908</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>0.30453887359878401</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>0.79211059072258605</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>0.67296948281784796</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="3">
         <v>0.34104681142620802</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
         <v>8240.4102211291702</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>0.30375747018101201</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>3.48717917280374</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>0.17489148442350499</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="3">
         <v>8.8631334155722899E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>8241.0757633973408</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>0.30298376398328702</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>4.15272144097435</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>0.12538569647495099</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="3">
         <v>6.3542839717162805E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
         <v>10875.337593444699</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>0.13237040065842501</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
         <v>0.38059815745329101</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>10876.284054534201</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>0.132751184384654</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>0.94646108943743501</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>0.62298642838935303</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="3">
         <v>0.23710748676339499</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
         <v>10876.286472661201</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0.131303689253189</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>0.94887921648114604</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>0.62223365339227399</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="3">
         <v>0.23682098198652901</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
         <v>10877.2610955283</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>0.13167475220286101</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>1.92350208356402</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>0.382223011194262</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="3">
         <v>0.14547337379678499</v>
       </c>
     </row>
@@ -1803,4 +1841,1387 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="62.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>36606.457974252102</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8.0641059461664596E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.94301857248683796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36612.070695444003</v>
+      </c>
+      <c r="F3" s="5">
+        <v>7.9795402254834696E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.6127211918210396</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.0424501887482301E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5.6981427513161799E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40899.034250075201</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.28792210120246498</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.61975958106325202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40900.011305867702</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.28766602912747002</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.97705579256580699</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.61352890791040604</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.38024041893674798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43576.0014323457</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.56558115633697E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2676.96718227053</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43577.414138771797</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.5725627809125099E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2678.3798886965901</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14664.244267398601</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.8953673274131E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.98874017517942403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>14673.1946484337</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.5692862736042801E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.9503810350197508</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.1388052294459199E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.1259824820575999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13024.00488137</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.11973815729607901</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.70262187426188005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13025.724510156</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.119812942022627</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.71962878597515</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.42324063145703</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.29737812573812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13234.4852639767</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6.1195359976013899E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>210.480382606738</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.9713586485598102E-46</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.3851197084934601E-46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>13236.4978323708</v>
+      </c>
+      <c r="F13" s="5">
+        <v>6.1191784433839998E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>212.49295100084399</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7.2067916800327202E-47</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5.0636494776395102E-47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9442.5055675225994</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.374942551292544</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9442.5055675225994</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.374942551292544</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10925.1644761835</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.154568938641089</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.72350355980240599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10927.088291223399</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.15459512080952001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.9238150398869001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.38216320631940898</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.27649644019759401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>11040.7313927672</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.11318352236396199</v>
+      </c>
+      <c r="G18" s="1">
+        <v>115.566916583668</v>
+      </c>
+      <c r="H18" s="4">
+        <v>8.0345751752435096E-26</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5.8130437407887203E-26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11042.377221132399</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.113311190100906</v>
+      </c>
+      <c r="G19" s="1">
+        <v>117.212744948962</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3.5283838856994402E-26</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.5527983016529899E-26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8240.4102211291702</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.30375747018101201</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.58243348329105105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8241.0757633973408</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.30298376398328702</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.66554226817061102</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.71693425719531301</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.41756651670894901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10366.869192836601</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.29802130038982799</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.716819812389069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10368.726675038601</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.29806298434323902</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.85748220191817</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.39505072644006201</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.283180187610931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10876.286472661201</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.131303689253189</v>
+      </c>
+      <c r="G24" s="1">
+        <v>509.41727982457297</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2.4068176796684199E-111</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.7252545975946099E-111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10877.2610955283</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.13167475220286101</v>
+      </c>
+      <c r="G25" s="1">
+        <v>510.39190269165601</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1.47844960796181E-111</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1.05978197060587E-111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>36606.457974252102</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8.0641059461664596E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.94301857248683796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36612.070695444003</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7.9795402254834696E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.6127211918210396</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.0424501887482301E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5.6981427513161799E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43576.0014323457</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.56558115633697E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.66959485303895305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43577.414138771797</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.5725627809125099E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.41270642606105</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.49344039229319803</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.330405146961047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40900.011305867702</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.28766602912747002</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43576.0014323457</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.56558115633697E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2675.9901264779601</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14664.244267398601</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.8953673274131E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.98874017517942403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>14673.1946484337</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.5692862736042801E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.9503810350197508</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.1388052294459199E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.1259824820575999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13234.4852639767</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6.1195359976013899E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.73229233127068005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13236.4978323708</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6.1191784433839998E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.0125683941059802</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.36557486306703801</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.26770766872932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13024.00488137</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.11973815729607901</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>13234.4852639767</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6.1195359976013899E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>210.480382606738</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.9713586485598102E-46</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.9713586485598102E-46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9442.5055675225994</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.374942551292544</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9442.5055675225994</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.374942551292544</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11040.7313927672</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.11318352236396199</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.69485458980672898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>11042.377221132399</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.113311190100906</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.64582836529371</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.43915002458017299</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.30514541019327102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10925.1644761835</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.154568938641089</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11040.7313927672</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.11318352236396199</v>
+      </c>
+      <c r="G19" s="1">
+        <v>115.566916583668</v>
+      </c>
+      <c r="H19" s="4">
+        <v>8.0345751752435096E-26</v>
+      </c>
+      <c r="I19" s="3">
+        <v>8.0345751752435096E-26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8240.4102211291702</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.30375747018101201</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.58243348329105105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8241.0757633973408</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.30298376398328702</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.66554226817061102</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.71693425719531301</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.41756651670894901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10876.286472661201</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.131303689253189</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.61947287058760603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10877.2610955283</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.13167475220286101</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.97462286708287105</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.61427569709621199</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.38052712941239403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10366.869192836601</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.29802130038982799</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10876.286472661201</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.131303689253189</v>
+      </c>
+      <c r="G25" s="1">
+        <v>509.41727982457297</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2.4068176796684199E-111</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2.4068176796684199E-111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>